--- a/data dictionary.xlsx
+++ b/data dictionary.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="14840" yWindow="0" windowWidth="14720" windowHeight="17560"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Dictionary" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false"/>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">{#NAME?}</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_1" vbProcedure="false">'Data Dictionary'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">{#NAME?}</definedName>
+    <definedName name="Print_Titles_1" localSheetId="0">'Data Dictionary'!$2:$2</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -158,21 +162,21 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="10"/>
       </rPr>
-      <t xml:space="preserve">÷</t>
+      <t>÷</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="10"/>
       </rPr>
       <t xml:space="preserve"> [BMI_TCR]</t>
     </r>
@@ -265,21 +269,21 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="10"/>
       </rPr>
-      <t xml:space="preserve">÷</t>
+      <t>÷</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="10"/>
       </rPr>
       <t xml:space="preserve"> Recipient BMI</t>
     </r>
@@ -476,50 +480,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="MM/DD/YY;@" numFmtId="165"/>
-    <numFmt formatCode="DD/MM/YYYY" numFmtId="166"/>
-    <numFmt formatCode="M/D/YY;@" numFmtId="167"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -531,105 +519,88 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thick">
-        <color rgb="00D9D9D9"/>
+        <color rgb="FFD9D9D9"/>
       </left>
       <right style="thick">
-        <color rgb="00D9D9D9"/>
+        <color rgb="FFD9D9D9"/>
       </right>
       <top/>
       <bottom style="thick">
-        <color rgb="00D9D9D9"/>
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thick">
-        <color rgb="00D9D9D9"/>
+        <color rgb="FFD9D9D9"/>
       </left>
       <right style="thick">
-        <color rgb="00D9D9D9"/>
+        <color rgb="FFD9D9D9"/>
       </right>
       <top style="thick">
-        <color rgb="00D9D9D9"/>
+        <color rgb="FFD9D9D9"/>
       </top>
       <bottom style="thick">
-        <color rgb="00D9D9D9"/>
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="167" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -688,31 +659,358 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:E60"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A35" view="normal" windowProtection="false" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100">
-      <selection activeCell="C48" activeCellId="0" pane="topLeft" sqref="C48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.69019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.7607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="20.9176470588235"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.69019607843137"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="74.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="2">
+    <row r="2" spans="2:5" ht="20" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +1024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="3">
+    <row r="3" spans="2:5" ht="20" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -736,7 +1034,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="4">
+    <row r="4" spans="2:5" ht="20" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -746,7 +1044,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="5">
+    <row r="5" spans="2:5" ht="20" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -756,7 +1054,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="6">
+    <row r="6" spans="2:5" ht="24">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -766,19 +1064,19 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="7">
+    <row r="7" spans="2:5" ht="24">
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>38168</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="8">
+    <row r="8" spans="2:5" ht="20" customHeight="1">
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -786,11 +1084,11 @@
         <v>15</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="8">
         <v>39083</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="9">
+    <row r="9" spans="2:5" ht="20" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -800,7 +1098,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="10">
+    <row r="10" spans="2:5" ht="20" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -810,7 +1108,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="11">
+    <row r="11" spans="2:5" ht="20" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
@@ -820,7 +1118,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="12">
+    <row r="12" spans="2:5" ht="20" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
@@ -830,7 +1128,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="13">
+    <row r="13" spans="2:5" ht="20" customHeight="1">
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
@@ -840,7 +1138,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.65" outlineLevel="0" r="14">
+    <row r="14" spans="2:5" ht="84">
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -850,7 +1148,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="15">
+    <row r="15" spans="2:5" ht="20" customHeight="1">
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
@@ -860,7 +1158,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58" outlineLevel="0" r="16">
+    <row r="16" spans="2:5" ht="60">
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
@@ -870,7 +1168,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="17">
+    <row r="17" spans="2:5" ht="24">
       <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
@@ -880,43 +1178,43 @@
       <c r="D17" s="10"/>
       <c r="E17" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="18">
+    <row r="18" spans="2:5" ht="20" customHeight="1">
       <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="10">
         <v>38168</v>
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="19">
+    <row r="19" spans="2:5" ht="20" customHeight="1">
       <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="10">
         <v>38168</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.65" outlineLevel="0" r="20">
+    <row r="20" spans="2:5" ht="26">
       <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="10">
         <v>38168</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.65" outlineLevel="0" r="21">
+    <row r="21" spans="2:5" ht="48">
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
@@ -926,21 +1224,21 @@
       <c r="D21" s="10"/>
       <c r="E21" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="22">
+    <row r="22" spans="2:5" ht="20" customHeight="1">
       <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="10">
         <v>36458</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="8">
         <v>39083</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="23">
+    <row r="23" spans="2:5" ht="24">
       <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
@@ -950,7 +1248,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="24">
+    <row r="24" spans="2:5" ht="24">
       <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
@@ -958,11 +1256,11 @@
         <v>47</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="8" t="n">
+      <c r="E24" s="8">
         <v>39083</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="25">
+    <row r="25" spans="2:5" ht="24">
       <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
@@ -972,7 +1270,7 @@
       <c r="D25" s="10"/>
       <c r="E25" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="26">
+    <row r="26" spans="2:5" ht="24">
       <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
@@ -982,7 +1280,7 @@
       <c r="D26" s="10"/>
       <c r="E26" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.3" outlineLevel="0" r="27">
+    <row r="27" spans="2:5" ht="36">
       <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
@@ -992,7 +1290,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="28">
+    <row r="28" spans="2:5" ht="20" customHeight="1">
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -1002,19 +1300,19 @@
       <c r="D28" s="10"/>
       <c r="E28" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="29.25" outlineLevel="0" r="29">
+    <row r="29" spans="2:5" ht="29.25" customHeight="1">
       <c r="B29" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="D29" s="10">
         <v>36453</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="30">
+    <row r="30" spans="2:5" ht="20" customHeight="1">
       <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
@@ -1024,7 +1322,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="31">
+    <row r="31" spans="2:5" ht="20" customHeight="1">
       <c r="B31" s="4" t="s">
         <v>60</v>
       </c>
@@ -1034,7 +1332,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="32">
+    <row r="32" spans="2:5" ht="20" customHeight="1">
       <c r="B32" s="4" t="s">
         <v>62</v>
       </c>
@@ -1044,7 +1342,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="33">
+    <row r="33" spans="2:5" ht="20" customHeight="1">
       <c r="B33" s="4" t="s">
         <v>64</v>
       </c>
@@ -1054,7 +1352,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="34">
+    <row r="34" spans="2:5" ht="24">
       <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
@@ -1064,7 +1362,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="35">
+    <row r="35" spans="2:5" ht="20" customHeight="1">
       <c r="B35" s="4" t="s">
         <v>68</v>
       </c>
@@ -1074,7 +1372,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="36">
+    <row r="36" spans="2:5" ht="24">
       <c r="B36" s="4" t="s">
         <v>70</v>
       </c>
@@ -1084,7 +1382,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="37">
+    <row r="37" spans="2:5" ht="24">
       <c r="B37" s="4" t="s">
         <v>72</v>
       </c>
@@ -1094,31 +1392,31 @@
       <c r="D37" s="10"/>
       <c r="E37" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="38">
+    <row r="38" spans="2:5" ht="24">
       <c r="B38" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="10">
         <v>36458</v>
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="39">
+    <row r="39" spans="2:5" ht="24">
       <c r="B39" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D39" s="10">
         <v>36458</v>
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="40">
+    <row r="40" spans="2:5" ht="24">
       <c r="B40" s="4" t="s">
         <v>76</v>
       </c>
@@ -1128,7 +1426,7 @@
       <c r="D40" s="10"/>
       <c r="E40" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="41">
+    <row r="41" spans="2:5" ht="24">
       <c r="B41" s="4" t="s">
         <v>78</v>
       </c>
@@ -1138,7 +1436,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="42">
+    <row r="42" spans="2:5" ht="24">
       <c r="B42" s="4" t="s">
         <v>79</v>
       </c>
@@ -1148,7 +1446,7 @@
       <c r="D42" s="10"/>
       <c r="E42" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="43">
+    <row r="43" spans="2:5" ht="24">
       <c r="B43" s="4" t="s">
         <v>81</v>
       </c>
@@ -1158,7 +1456,7 @@
       <c r="D43" s="10"/>
       <c r="E43" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="44">
+    <row r="44" spans="2:5" ht="20" customHeight="1">
       <c r="B44" s="4" t="s">
         <v>83</v>
       </c>
@@ -1168,7 +1466,7 @@
       <c r="D44" s="10"/>
       <c r="E44" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="45">
+    <row r="45" spans="2:5" ht="20" customHeight="1">
       <c r="B45" s="4" t="s">
         <v>85</v>
       </c>
@@ -1178,7 +1476,7 @@
       <c r="D45" s="10"/>
       <c r="E45" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="92" outlineLevel="0" r="46">
+    <row r="46" spans="2:5" ht="96">
       <c r="B46" s="4" t="s">
         <v>87</v>
       </c>
@@ -1188,7 +1486,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="92" outlineLevel="0" r="47">
+    <row r="47" spans="2:5" ht="96">
       <c r="B47" s="4" t="s">
         <v>89</v>
       </c>
@@ -1198,7 +1496,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.65" outlineLevel="0" r="48">
+    <row r="48" spans="2:5" ht="48">
       <c r="B48" s="4" t="s">
         <v>91</v>
       </c>
@@ -1208,7 +1506,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="49">
+    <row r="49" spans="2:5" ht="24">
       <c r="B49" s="4" t="s">
         <v>93</v>
       </c>
@@ -1218,7 +1516,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="50">
+    <row r="50" spans="2:5" ht="24">
       <c r="B50" s="4" t="s">
         <v>95</v>
       </c>
@@ -1228,7 +1526,7 @@
       <c r="D50" s="10"/>
       <c r="E50" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="51">
+    <row r="51" spans="2:5" ht="24">
       <c r="B51" s="4" t="s">
         <v>97</v>
       </c>
@@ -1238,7 +1536,7 @@
       <c r="D51" s="10"/>
       <c r="E51" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.3" outlineLevel="0" r="52">
+    <row r="52" spans="2:5" ht="36">
       <c r="B52" s="4" t="s">
         <v>99</v>
       </c>
@@ -1248,7 +1546,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.3" outlineLevel="0" r="53">
+    <row r="53" spans="2:5" ht="36">
       <c r="B53" s="4" t="s">
         <v>101</v>
       </c>
@@ -1258,7 +1556,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="69.3" outlineLevel="0" r="54">
+    <row r="54" spans="2:5" ht="72">
       <c r="B54" s="4" t="s">
         <v>103</v>
       </c>
@@ -1268,7 +1566,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="55">
+    <row r="55" spans="2:5" ht="20" customHeight="1">
       <c r="B55" s="4" t="s">
         <v>105</v>
       </c>
@@ -1278,7 +1576,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.3" outlineLevel="0" r="56">
+    <row r="56" spans="2:5" ht="36">
       <c r="B56" s="4" t="s">
         <v>107</v>
       </c>
@@ -1288,7 +1586,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="57">
+    <row r="57" spans="2:5" ht="24">
       <c r="B57" s="4" t="s">
         <v>109</v>
       </c>
@@ -1298,7 +1596,7 @@
       <c r="D57" s="10"/>
       <c r="E57" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="58">
+    <row r="58" spans="2:5" ht="20" customHeight="1">
       <c r="B58" s="4" t="s">
         <v>111</v>
       </c>
@@ -1308,7 +1606,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="59">
+    <row r="59" spans="2:5" ht="20" customHeight="1">
       <c r="B59" s="4" t="s">
         <v>113</v>
       </c>
@@ -1318,7 +1616,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.1" outlineLevel="0" r="60">
+    <row r="60" spans="2:5" ht="20" customHeight="1">
       <c r="B60" s="4" t="s">
         <v>115</v>
       </c>
@@ -1329,12 +1627,15 @@
       <c r="E60" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.251388888888889" header="0.511805555555555" footer="0.3"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="0" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25138888888888899" header="0.51180555555555496" footer="0.3"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>